--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.64324010364399</v>
+        <v>0.4119796666666666</v>
       </c>
       <c r="H2">
-        <v>4.64324010364399</v>
+        <v>1.235939</v>
       </c>
       <c r="I2">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="J2">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>410.6692864649117</v>
+        <v>40.76403837127867</v>
       </c>
       <c r="R2">
-        <v>410.6692864649117</v>
+        <v>366.8763453415079</v>
       </c>
       <c r="S2">
-        <v>0.1560605505161745</v>
+        <v>0.0133094062930994</v>
       </c>
       <c r="T2">
-        <v>0.1560605505161745</v>
+        <v>0.0133094062930994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.64324010364399</v>
+        <v>0.4119796666666666</v>
       </c>
       <c r="H3">
-        <v>4.64324010364399</v>
+        <v>1.235939</v>
       </c>
       <c r="I3">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="J3">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>756.0934421538905</v>
+        <v>67.15525463454144</v>
       </c>
       <c r="R3">
-        <v>756.0934421538905</v>
+        <v>604.397291710873</v>
       </c>
       <c r="S3">
-        <v>0.2873269628706145</v>
+        <v>0.02192610458529558</v>
       </c>
       <c r="T3">
-        <v>0.2873269628706145</v>
+        <v>0.02192610458529559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.64324010364399</v>
+        <v>0.4119796666666666</v>
       </c>
       <c r="H4">
-        <v>4.64324010364399</v>
+        <v>1.235939</v>
       </c>
       <c r="I4">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="J4">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>287.0475944233967</v>
+        <v>26.94186622583112</v>
       </c>
       <c r="R4">
-        <v>287.0475944233967</v>
+        <v>242.47679603248</v>
       </c>
       <c r="S4">
-        <v>0.1090824346657986</v>
+        <v>0.008796484799370749</v>
       </c>
       <c r="T4">
-        <v>0.1090824346657986</v>
+        <v>0.00879648479937075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.64324010364399</v>
+        <v>0.4119796666666666</v>
       </c>
       <c r="H5">
-        <v>4.64324010364399</v>
+        <v>1.235939</v>
       </c>
       <c r="I5">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="J5">
-        <v>0.8000463026594938</v>
+        <v>0.0634382497734383</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>651.490748659538</v>
+        <v>59.4374586798011</v>
       </c>
       <c r="R5">
-        <v>651.490748659538</v>
+        <v>534.93712811821</v>
       </c>
       <c r="S5">
-        <v>0.2475763546069062</v>
+        <v>0.01940625409567256</v>
       </c>
       <c r="T5">
-        <v>0.2475763546069062</v>
+        <v>0.01940625409567257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.16047411665682</v>
+        <v>4.826051</v>
       </c>
       <c r="H6">
-        <v>1.16047411665682</v>
+        <v>14.478153</v>
       </c>
       <c r="I6">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="J6">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>102.6376122730428</v>
+        <v>477.521936306924</v>
       </c>
       <c r="R6">
-        <v>102.6376122730428</v>
+        <v>4297.697426762315</v>
       </c>
       <c r="S6">
-        <v>0.03900384762853529</v>
+        <v>0.1559103003066138</v>
       </c>
       <c r="T6">
-        <v>0.03900384762853529</v>
+        <v>0.1559103003066138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.16047411665682</v>
+        <v>4.826051</v>
       </c>
       <c r="H7">
-        <v>1.16047411665682</v>
+        <v>14.478153</v>
       </c>
       <c r="I7">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="J7">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>188.9686619274654</v>
+        <v>786.6764066453522</v>
       </c>
       <c r="R7">
-        <v>188.9686619274654</v>
+        <v>7080.08765980817</v>
       </c>
       <c r="S7">
-        <v>0.0718109544167843</v>
+        <v>0.2568488387209328</v>
       </c>
       <c r="T7">
-        <v>0.0718109544167843</v>
+        <v>0.2568488387209329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.16047411665682</v>
+        <v>4.826051</v>
       </c>
       <c r="H8">
-        <v>1.16047411665682</v>
+        <v>14.478153</v>
       </c>
       <c r="I8">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="J8">
-        <v>0.1999536973405062</v>
+        <v>0.7431343183377619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>71.74113251553209</v>
+        <v>315.6049459747734</v>
       </c>
       <c r="R8">
-        <v>71.74113251553209</v>
+        <v>2840.44451377296</v>
       </c>
       <c r="S8">
-        <v>0.02726271723752189</v>
+        <v>0.1030446104439329</v>
       </c>
       <c r="T8">
-        <v>0.02726271723752189</v>
+        <v>0.1030446104439329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.826051</v>
+      </c>
+      <c r="H9">
+        <v>14.478153</v>
+      </c>
+      <c r="I9">
+        <v>0.7431343183377619</v>
+      </c>
+      <c r="J9">
+        <v>0.7431343183377619</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>696.2678746259633</v>
+      </c>
+      <c r="R9">
+        <v>6266.41087163367</v>
+      </c>
+      <c r="S9">
+        <v>0.2273305688662823</v>
+      </c>
+      <c r="T9">
+        <v>0.2273305688662823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.003278666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.009836000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="J10">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>0.3244133257546667</v>
+      </c>
+      <c r="R10">
+        <v>2.919719931792</v>
+      </c>
+      <c r="S10">
+        <v>0.000105920535154992</v>
+      </c>
+      <c r="T10">
+        <v>0.000105920535154992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.003278666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.009836000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="J11">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>0.5344431113391112</v>
+      </c>
+      <c r="R11">
+        <v>4.809988002052001</v>
+      </c>
+      <c r="S11">
+        <v>0.0001744949910157115</v>
+      </c>
+      <c r="T11">
+        <v>0.0001744949910157115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.003278666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.009836000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="J12">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>0.2144120350577779</v>
+      </c>
+      <c r="R12">
+        <v>1.929708315520001</v>
+      </c>
+      <c r="S12">
+        <v>7.000525469833925E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.000525469833926E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.003278666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.009836000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="J13">
+        <v>0.0005048619913859335</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>0.4730224093377778</v>
+      </c>
+      <c r="R13">
+        <v>4.257201684040001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001544412105168907</v>
+      </c>
+      <c r="T13">
+        <v>0.0001544412105168907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.252874666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.758624</v>
+      </c>
+      <c r="I14">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="J14">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>123.9678438492587</v>
+      </c>
+      <c r="R14">
+        <v>1115.710594643328</v>
+      </c>
+      <c r="S14">
+        <v>0.04047534216413143</v>
+      </c>
+      <c r="T14">
+        <v>0.04047534216413144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.16047411665682</v>
-      </c>
-      <c r="H9">
-        <v>1.16047411665682</v>
-      </c>
-      <c r="I9">
-        <v>0.1999536973405062</v>
-      </c>
-      <c r="J9">
-        <v>0.1999536973405062</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>162.8255559016715</v>
-      </c>
-      <c r="R9">
-        <v>162.8255559016715</v>
-      </c>
-      <c r="S9">
-        <v>0.06187617805766472</v>
-      </c>
-      <c r="T9">
-        <v>0.06187617805766472</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.252874666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.758624</v>
+      </c>
+      <c r="I15">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="J15">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>204.2263831754631</v>
+      </c>
+      <c r="R15">
+        <v>1838.037448579168</v>
+      </c>
+      <c r="S15">
+        <v>0.06667965241067889</v>
+      </c>
+      <c r="T15">
+        <v>0.0666796524106789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.252874666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.758624</v>
+      </c>
+      <c r="I16">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="J16">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>81.93312534129781</v>
+      </c>
+      <c r="R16">
+        <v>737.3981280716802</v>
+      </c>
+      <c r="S16">
+        <v>0.02675106043465745</v>
+      </c>
+      <c r="T16">
+        <v>0.02675106043465745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.252874666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.758624</v>
+      </c>
+      <c r="I17">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="J17">
+        <v>0.1929225698974139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>180.7557320328178</v>
+      </c>
+      <c r="R17">
+        <v>1626.80158829536</v>
+      </c>
+      <c r="S17">
+        <v>0.0590165148879461</v>
+      </c>
+      <c r="T17">
+        <v>0.05901651488794611</v>
       </c>
     </row>
   </sheetData>
